--- a/30 Record.xlsx
+++ b/30 Record.xlsx
@@ -514,33 +514,6 @@
     <t>ID Calon</t>
   </si>
   <si>
-    <t>calon1</t>
-  </si>
-  <si>
-    <t>calon2</t>
-  </si>
-  <si>
-    <t>calon3</t>
-  </si>
-  <si>
-    <t>calon4</t>
-  </si>
-  <si>
-    <t>calon5</t>
-  </si>
-  <si>
-    <t>calon6</t>
-  </si>
-  <si>
-    <t>calon7</t>
-  </si>
-  <si>
-    <t>calon8</t>
-  </si>
-  <si>
-    <t>calon9</t>
-  </si>
-  <si>
     <t>calon10</t>
   </si>
   <si>
@@ -602,6 +575,33 @@
   </si>
   <si>
     <t>calon30</t>
+  </si>
+  <si>
+    <t>calon01</t>
+  </si>
+  <si>
+    <t>calon02</t>
+  </si>
+  <si>
+    <t>calon03</t>
+  </si>
+  <si>
+    <t>calon04</t>
+  </si>
+  <si>
+    <t>calon05</t>
+  </si>
+  <si>
+    <t>calon06</t>
+  </si>
+  <si>
+    <t>calon07</t>
+  </si>
+  <si>
+    <t>calon08</t>
+  </si>
+  <si>
+    <t>calon09</t>
   </si>
 </sst>
 </file>
@@ -898,6 +898,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,9 +931,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B71"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1174,30 +1174,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1218,8 +1218,8 @@
       <c r="N3" s="32"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="56" t="s">
-        <v>164</v>
+      <c r="B4" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="C4" s="29">
         <v>350725701020301</v>
@@ -1247,8 +1247,8 @@
       <c r="N4" s="30"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="56" t="s">
-        <v>165</v>
+      <c r="B5" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="C5" s="29">
         <v>350725701020302</v>
@@ -1276,8 +1276,8 @@
       <c r="N5" s="30"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
-        <v>166</v>
+      <c r="B6" s="45" t="s">
+        <v>187</v>
       </c>
       <c r="C6" s="29">
         <v>350725701020303</v>
@@ -1305,8 +1305,8 @@
       <c r="N6" s="30"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
-        <v>167</v>
+      <c r="B7" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="C7" s="29">
         <v>350725701020304</v>
@@ -1331,8 +1331,8 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
-        <v>168</v>
+      <c r="B8" s="45" t="s">
+        <v>189</v>
       </c>
       <c r="C8" s="29">
         <v>350725701020305</v>
@@ -1357,8 +1357,8 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="56" t="s">
-        <v>169</v>
+      <c r="B9" s="45" t="s">
+        <v>190</v>
       </c>
       <c r="C9" s="29">
         <v>350725701020306</v>
@@ -1383,8 +1383,8 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
-        <v>170</v>
+      <c r="B10" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="C10" s="29">
         <v>350725701020307</v>
@@ -1409,8 +1409,8 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="56" t="s">
-        <v>171</v>
+      <c r="B11" s="45" t="s">
+        <v>192</v>
       </c>
       <c r="C11" s="29">
         <v>350725701020308</v>
@@ -1435,8 +1435,8 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="56" t="s">
-        <v>172</v>
+      <c r="B12" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="C12" s="29">
         <v>350725701020309</v>
@@ -1461,8 +1461,8 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="56" t="s">
-        <v>173</v>
+      <c r="B13" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="C13" s="29">
         <v>350725701020310</v>
@@ -1487,8 +1487,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
-        <v>174</v>
+      <c r="B14" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="C14" s="29">
         <v>350725701020311</v>
@@ -1513,8 +1513,8 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
-        <v>175</v>
+      <c r="B15" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="C15" s="29">
         <v>350725701020312</v>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="56" t="s">
-        <v>176</v>
+      <c r="B16" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="C16" s="29">
         <v>350725701020313</v>
@@ -1565,8 +1565,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
-        <v>177</v>
+      <c r="B17" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="C17" s="29">
         <v>350725701020314</v>
@@ -1591,8 +1591,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="56" t="s">
-        <v>178</v>
+      <c r="B18" s="45" t="s">
+        <v>169</v>
       </c>
       <c r="C18" s="29">
         <v>350725701020315</v>
@@ -1617,8 +1617,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="56" t="s">
-        <v>179</v>
+      <c r="B19" s="45" t="s">
+        <v>170</v>
       </c>
       <c r="C19" s="29">
         <v>350725701020316</v>
@@ -1643,8 +1643,8 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="56" t="s">
-        <v>180</v>
+      <c r="B20" s="45" t="s">
+        <v>171</v>
       </c>
       <c r="C20" s="29">
         <v>350725701020317</v>
@@ -1669,8 +1669,8 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="56" t="s">
-        <v>181</v>
+      <c r="B21" s="45" t="s">
+        <v>172</v>
       </c>
       <c r="C21" s="29">
         <v>350725701020318</v>
@@ -1695,8 +1695,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="56" t="s">
-        <v>182</v>
+      <c r="B22" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="C22" s="29">
         <v>350725701020319</v>
@@ -1721,8 +1721,8 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="56" t="s">
-        <v>183</v>
+      <c r="B23" s="45" t="s">
+        <v>174</v>
       </c>
       <c r="C23" s="29">
         <v>350725701020320</v>
@@ -1747,8 +1747,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="56" t="s">
-        <v>184</v>
+      <c r="B24" s="45" t="s">
+        <v>175</v>
       </c>
       <c r="C24" s="29">
         <v>350725701020321</v>
@@ -1773,8 +1773,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="56" t="s">
-        <v>185</v>
+      <c r="B25" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="C25" s="29">
         <v>350725701020322</v>
@@ -1799,8 +1799,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="56" t="s">
-        <v>186</v>
+      <c r="B26" s="45" t="s">
+        <v>177</v>
       </c>
       <c r="C26" s="29">
         <v>350725701020323</v>
@@ -1825,8 +1825,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="56" t="s">
-        <v>187</v>
+      <c r="B27" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="C27" s="29">
         <v>350725701020324</v>
@@ -1851,8 +1851,8 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="56" t="s">
-        <v>188</v>
+      <c r="B28" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="C28" s="29">
         <v>350725701020325</v>
@@ -1877,8 +1877,8 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="56" t="s">
-        <v>189</v>
+      <c r="B29" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="C29" s="29">
         <v>350725701020326</v>
@@ -1903,8 +1903,8 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="56" t="s">
-        <v>190</v>
+      <c r="B30" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="C30" s="29">
         <v>350725701020327</v>
@@ -1929,8 +1929,8 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="56" t="s">
-        <v>191</v>
+      <c r="B31" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="C31" s="29">
         <v>350725701020328</v>
@@ -1955,8 +1955,8 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="56" t="s">
-        <v>192</v>
+      <c r="B32" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="C32" s="29">
         <v>350725701020329</v>
@@ -1981,8 +1981,8 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="56" t="s">
-        <v>193</v>
+      <c r="B33" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="C33" s="29">
         <v>350725701020330</v>
@@ -2007,27 +2007,27 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="47"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="26" t="s">
         <v>35</v>
       </c>
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="56" t="s">
-        <v>164</v>
+      <c r="B42" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="C42" s="29">
         <v>350725701020301</v>
@@ -2076,8 +2076,8 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="56" t="s">
-        <v>165</v>
+      <c r="B43" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="C43" s="29">
         <v>350725701020302</v>
@@ -2107,8 +2107,8 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="56" t="s">
-        <v>166</v>
+      <c r="B44" s="45" t="s">
+        <v>187</v>
       </c>
       <c r="C44" s="29">
         <v>350725701020303</v>
@@ -2138,8 +2138,8 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="56" t="s">
-        <v>167</v>
+      <c r="B45" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="C45" s="29">
         <v>350725701020304</v>
@@ -2169,8 +2169,8 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="56" t="s">
-        <v>168</v>
+      <c r="B46" s="45" t="s">
+        <v>189</v>
       </c>
       <c r="C46" s="29">
         <v>350725701020305</v>
@@ -2200,8 +2200,8 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="56" t="s">
-        <v>169</v>
+      <c r="B47" s="45" t="s">
+        <v>190</v>
       </c>
       <c r="C47" s="29">
         <v>350725701020306</v>
@@ -2231,8 +2231,8 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="56" t="s">
-        <v>170</v>
+      <c r="B48" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="C48" s="29">
         <v>350725701020307</v>
@@ -2262,8 +2262,8 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="56" t="s">
-        <v>171</v>
+      <c r="B49" s="45" t="s">
+        <v>192</v>
       </c>
       <c r="C49" s="29">
         <v>350725701020308</v>
@@ -2293,8 +2293,8 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="56" t="s">
-        <v>172</v>
+      <c r="B50" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="C50" s="29">
         <v>350725701020309</v>
@@ -2324,8 +2324,8 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="56" t="s">
-        <v>173</v>
+      <c r="B51" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="C51" s="29">
         <v>350725701020310</v>
@@ -2355,8 +2355,8 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="56" t="s">
-        <v>174</v>
+      <c r="B52" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="C52" s="29">
         <v>350725701020311</v>
@@ -2386,8 +2386,8 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="56" t="s">
-        <v>175</v>
+      <c r="B53" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="C53" s="29">
         <v>350725701020312</v>
@@ -2417,8 +2417,8 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="56" t="s">
-        <v>176</v>
+      <c r="B54" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="C54" s="29">
         <v>350725701020313</v>
@@ -2448,8 +2448,8 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="56" t="s">
-        <v>177</v>
+      <c r="B55" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="C55" s="29">
         <v>350725701020314</v>
@@ -2479,8 +2479,8 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="56" t="s">
-        <v>178</v>
+      <c r="B56" s="45" t="s">
+        <v>169</v>
       </c>
       <c r="C56" s="29">
         <v>350725701020315</v>
@@ -2510,8 +2510,8 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="56" t="s">
-        <v>179</v>
+      <c r="B57" s="45" t="s">
+        <v>170</v>
       </c>
       <c r="C57" s="29">
         <v>350725701020316</v>
@@ -2541,8 +2541,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="56" t="s">
-        <v>180</v>
+      <c r="B58" s="45" t="s">
+        <v>171</v>
       </c>
       <c r="C58" s="29">
         <v>350725701020317</v>
@@ -2572,8 +2572,8 @@
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="56" t="s">
-        <v>181</v>
+      <c r="B59" s="45" t="s">
+        <v>172</v>
       </c>
       <c r="C59" s="29">
         <v>350725701020318</v>
@@ -2603,8 +2603,8 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="56" t="s">
-        <v>182</v>
+      <c r="B60" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="C60" s="29">
         <v>350725701020319</v>
@@ -2634,8 +2634,8 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="56" t="s">
-        <v>183</v>
+      <c r="B61" s="45" t="s">
+        <v>174</v>
       </c>
       <c r="C61" s="29">
         <v>350725701020320</v>
@@ -2665,8 +2665,8 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="56" t="s">
-        <v>184</v>
+      <c r="B62" s="45" t="s">
+        <v>175</v>
       </c>
       <c r="C62" s="29">
         <v>350725701020321</v>
@@ -2696,8 +2696,8 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="56" t="s">
-        <v>185</v>
+      <c r="B63" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="C63" s="29">
         <v>350725701020322</v>
@@ -2727,8 +2727,8 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="56" t="s">
-        <v>186</v>
+      <c r="B64" s="45" t="s">
+        <v>177</v>
       </c>
       <c r="C64" s="29">
         <v>350725701020323</v>
@@ -2758,8 +2758,8 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="56" t="s">
-        <v>187</v>
+      <c r="B65" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="C65" s="29">
         <v>350725701020324</v>
@@ -2789,8 +2789,8 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="56" t="s">
-        <v>188</v>
+      <c r="B66" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="C66" s="29">
         <v>350725701020325</v>
@@ -2820,8 +2820,8 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="56" t="s">
-        <v>189</v>
+      <c r="B67" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="C67" s="29">
         <v>350725701020326</v>
@@ -2851,8 +2851,8 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="56" t="s">
-        <v>190</v>
+      <c r="B68" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="C68" s="29">
         <v>350725701020327</v>
@@ -2882,8 +2882,8 @@
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="56" t="s">
-        <v>191</v>
+      <c r="B69" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="C69" s="29">
         <v>350725701020328</v>
@@ -2913,8 +2913,8 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="56" t="s">
-        <v>192</v>
+      <c r="B70" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="C70" s="29">
         <v>350725701020329</v>
@@ -2944,8 +2944,8 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="56" t="s">
-        <v>193</v>
+      <c r="B71" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="C71" s="29">
         <v>350725701020330</v>
@@ -2996,8 +2996,8 @@
   </sheetPr>
   <dimension ref="A1:AL76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3029,54 +3029,54 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="I2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="I2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="16"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
+      <c r="P2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="16"/>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AF2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
     </row>
     <row r="3" spans="2:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="50"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
@@ -6720,33 +6720,33 @@
       </c>
     </row>
     <row r="37" spans="2:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="54" t="s">
+      <c r="P37" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
       <c r="W37" s="4" t="s">
         <v>19</v>
       </c>
@@ -6763,7 +6763,7 @@
       </c>
     </row>
     <row r="38" spans="2:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="50"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="34" t="s">
         <v>4</v>
       </c>
@@ -8429,7 +8429,7 @@
         <f t="shared" si="56"/>
         <v>12.68857754044952</v>
       </c>
-      <c r="S70" s="49" t="s">
+      <c r="S70" s="50" t="s">
         <v>32</v>
       </c>
       <c r="T70" s="14">
@@ -8438,7 +8438,7 @@
       </c>
     </row>
     <row r="71" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S71" s="50"/>
+      <c r="S71" s="51"/>
       <c r="T71" s="11">
         <f>LARGE(T39:T68,2)</f>
         <v>0.66562031526758181</v>
